--- a/po forecast comparison/B091HTG6DQ_sales_po_comparison.xlsx
+++ b/po forecast comparison/B091HTG6DQ_sales_po_comparison.xlsx
@@ -7,7 +7,10 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sales vs PO" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Growth" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Volume Insights" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Prediction Info" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C105"/>
+  <dimension ref="A1:D107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,1152 +453,2059 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Order Week</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44914</v>
+        <v>44920</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2" s="2" t="n">
+        <v>44914</v>
+      </c>
+      <c r="D2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
+        <v>44927</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="n">
         <v>44921</v>
       </c>
-      <c r="B3" t="n">
-        <v>0</v>
-      </c>
-      <c r="C3" t="n">
+      <c r="D3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44935</v>
+        <v>44941</v>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4" s="2" t="n">
+        <v>44935</v>
+      </c>
+      <c r="D4" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
+        <v>44948</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>44942</v>
       </c>
-      <c r="B5" t="n">
-        <v>40</v>
-      </c>
-      <c r="C5" t="n">
+      <c r="D5" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44949</v>
+        <v>44948</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="C6" s="2" t="n">
+        <v>44942</v>
+      </c>
+      <c r="D6" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44956</v>
+        <v>44955</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
-      </c>
-      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="n">
+        <v>44949</v>
+      </c>
+      <c r="D7" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44963</v>
+        <v>44962</v>
       </c>
       <c r="B8" t="n">
-        <v>35</v>
-      </c>
-      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44970</v>
+        <v>44962</v>
       </c>
       <c r="B9" t="n">
-        <v>168</v>
-      </c>
-      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>44956</v>
+      </c>
+      <c r="D9" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44977</v>
+        <v>44969</v>
       </c>
       <c r="B10" t="n">
-        <v>248</v>
-      </c>
-      <c r="C10" t="n">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>44963</v>
+      </c>
+      <c r="D10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44984</v>
+        <v>44976</v>
       </c>
       <c r="B11" t="n">
-        <v>238</v>
-      </c>
-      <c r="C11" t="n">
+        <v>168</v>
+      </c>
+      <c r="C11" s="2" t="n">
+        <v>44970</v>
+      </c>
+      <c r="D11" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44991</v>
+        <v>44983</v>
       </c>
       <c r="B12" t="n">
-        <v>245</v>
-      </c>
-      <c r="C12" t="n">
+        <v>248</v>
+      </c>
+      <c r="C12" s="2" t="n">
+        <v>44977</v>
+      </c>
+      <c r="D12" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44998</v>
+        <v>44990</v>
       </c>
       <c r="B13" t="n">
-        <v>273</v>
-      </c>
-      <c r="C13" t="n">
+        <v>238</v>
+      </c>
+      <c r="C13" s="2" t="n">
+        <v>44984</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45005</v>
+        <v>44997</v>
       </c>
       <c r="B14" t="n">
-        <v>243</v>
-      </c>
-      <c r="C14" t="n">
+        <v>245</v>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>44991</v>
+      </c>
+      <c r="D14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45012</v>
+        <v>45004</v>
       </c>
       <c r="B15" t="n">
-        <v>271</v>
-      </c>
-      <c r="C15" t="n">
+        <v>273</v>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>44998</v>
+      </c>
+      <c r="D15" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45019</v>
+        <v>45011</v>
       </c>
       <c r="B16" t="n">
-        <v>263</v>
-      </c>
-      <c r="C16" t="n">
+        <v>243</v>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>45005</v>
+      </c>
+      <c r="D16" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45026</v>
+        <v>45018</v>
       </c>
       <c r="B17" t="n">
-        <v>313</v>
-      </c>
-      <c r="C17" t="n">
+        <v>271</v>
+      </c>
+      <c r="C17" s="2" t="n">
+        <v>45012</v>
+      </c>
+      <c r="D17" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45033</v>
+        <v>45025</v>
       </c>
       <c r="B18" t="n">
-        <v>306</v>
-      </c>
-      <c r="C18" t="n">
+        <v>263</v>
+      </c>
+      <c r="C18" s="2" t="n">
+        <v>45019</v>
+      </c>
+      <c r="D18" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45040</v>
+        <v>45032</v>
       </c>
       <c r="B19" t="n">
-        <v>322</v>
-      </c>
-      <c r="C19" t="n">
+        <v>313</v>
+      </c>
+      <c r="C19" s="2" t="n">
+        <v>45026</v>
+      </c>
+      <c r="D19" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45047</v>
+        <v>45039</v>
       </c>
       <c r="B20" t="n">
-        <v>388</v>
-      </c>
-      <c r="C20" t="n">
+        <v>306</v>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>45033</v>
+      </c>
+      <c r="D20" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45054</v>
+        <v>45046</v>
       </c>
       <c r="B21" t="n">
-        <v>390</v>
-      </c>
-      <c r="C21" t="n">
+        <v>322</v>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>45040</v>
+      </c>
+      <c r="D21" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45061</v>
+        <v>45053</v>
       </c>
       <c r="B22" t="n">
-        <v>426</v>
-      </c>
-      <c r="C22" t="n">
+        <v>388</v>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="D22" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45068</v>
+        <v>45060</v>
       </c>
       <c r="B23" t="n">
-        <v>382</v>
-      </c>
-      <c r="C23" t="n">
+        <v>390</v>
+      </c>
+      <c r="C23" s="2" t="n">
+        <v>45054</v>
+      </c>
+      <c r="D23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45075</v>
+        <v>45067</v>
       </c>
       <c r="B24" t="n">
-        <v>376</v>
-      </c>
-      <c r="C24" t="n">
+        <v>426</v>
+      </c>
+      <c r="C24" s="2" t="n">
+        <v>45061</v>
+      </c>
+      <c r="D24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45082</v>
+        <v>45074</v>
       </c>
       <c r="B25" t="n">
-        <v>589</v>
-      </c>
-      <c r="C25" t="n">
+        <v>382</v>
+      </c>
+      <c r="C25" s="2" t="n">
+        <v>45068</v>
+      </c>
+      <c r="D25" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45089</v>
+        <v>45081</v>
       </c>
       <c r="B26" t="n">
-        <v>623</v>
-      </c>
-      <c r="C26" t="n">
+        <v>376</v>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>45075</v>
+      </c>
+      <c r="D26" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45096</v>
+        <v>45088</v>
       </c>
       <c r="B27" t="n">
-        <v>486</v>
-      </c>
-      <c r="C27" t="n">
+        <v>589</v>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>45082</v>
+      </c>
+      <c r="D27" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45103</v>
+        <v>45095</v>
       </c>
       <c r="B28" t="n">
-        <v>590</v>
-      </c>
-      <c r="C28" t="n">
+        <v>623</v>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>45089</v>
+      </c>
+      <c r="D28" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45110</v>
+        <v>45102</v>
       </c>
       <c r="B29" t="n">
-        <v>618</v>
-      </c>
-      <c r="C29" t="n">
+        <v>486</v>
+      </c>
+      <c r="C29" s="2" t="n">
+        <v>45096</v>
+      </c>
+      <c r="D29" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45117</v>
+        <v>45109</v>
       </c>
       <c r="B30" t="n">
-        <v>690</v>
-      </c>
-      <c r="C30" t="n">
+        <v>590</v>
+      </c>
+      <c r="C30" s="2" t="n">
+        <v>45103</v>
+      </c>
+      <c r="D30" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45124</v>
+        <v>45116</v>
       </c>
       <c r="B31" t="n">
-        <v>580</v>
-      </c>
-      <c r="C31" t="n">
+        <v>618</v>
+      </c>
+      <c r="C31" s="2" t="n">
+        <v>45110</v>
+      </c>
+      <c r="D31" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45131</v>
+        <v>45123</v>
       </c>
       <c r="B32" t="n">
-        <v>654</v>
-      </c>
-      <c r="C32" t="n">
+        <v>690</v>
+      </c>
+      <c r="C32" s="2" t="n">
+        <v>45117</v>
+      </c>
+      <c r="D32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45138</v>
+        <v>45130</v>
       </c>
       <c r="B33" t="n">
-        <v>898</v>
-      </c>
-      <c r="C33" t="n">
+        <v>580</v>
+      </c>
+      <c r="C33" s="2" t="n">
+        <v>45124</v>
+      </c>
+      <c r="D33" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45145</v>
+        <v>45137</v>
       </c>
       <c r="B34" t="n">
-        <v>811</v>
-      </c>
-      <c r="C34" t="n">
+        <v>654</v>
+      </c>
+      <c r="C34" s="2" t="n">
+        <v>45131</v>
+      </c>
+      <c r="D34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45152</v>
+        <v>45144</v>
       </c>
       <c r="B35" t="n">
-        <v>524</v>
-      </c>
-      <c r="C35" t="n">
+        <v>898</v>
+      </c>
+      <c r="C35" s="2" t="n">
+        <v>45138</v>
+      </c>
+      <c r="D35" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45159</v>
+        <v>45151</v>
       </c>
       <c r="B36" t="n">
-        <v>434</v>
-      </c>
-      <c r="C36" t="n">
+        <v>811</v>
+      </c>
+      <c r="C36" s="2" t="n">
+        <v>45145</v>
+      </c>
+      <c r="D36" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45166</v>
+        <v>45158</v>
       </c>
       <c r="B37" t="n">
-        <v>701</v>
-      </c>
-      <c r="C37" t="n">
+        <v>524</v>
+      </c>
+      <c r="C37" s="2" t="n">
+        <v>45152</v>
+      </c>
+      <c r="D37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45173</v>
+        <v>45165</v>
       </c>
       <c r="B38" t="n">
-        <v>763</v>
-      </c>
-      <c r="C38" t="n">
+        <v>434</v>
+      </c>
+      <c r="C38" s="2" t="n">
+        <v>45159</v>
+      </c>
+      <c r="D38" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45180</v>
+        <v>45172</v>
       </c>
       <c r="B39" t="n">
-        <v>692</v>
-      </c>
-      <c r="C39" t="n">
+        <v>701</v>
+      </c>
+      <c r="C39" s="2" t="n">
+        <v>45166</v>
+      </c>
+      <c r="D39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45187</v>
+        <v>45179</v>
       </c>
       <c r="B40" t="n">
-        <v>368</v>
-      </c>
-      <c r="C40" t="n">
+        <v>763</v>
+      </c>
+      <c r="C40" s="2" t="n">
+        <v>45173</v>
+      </c>
+      <c r="D40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45194</v>
+        <v>45186</v>
       </c>
       <c r="B41" t="n">
-        <v>228</v>
-      </c>
-      <c r="C41" t="n">
+        <v>692</v>
+      </c>
+      <c r="C41" s="2" t="n">
+        <v>45180</v>
+      </c>
+      <c r="D41" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45201</v>
+        <v>45193</v>
       </c>
       <c r="B42" t="n">
-        <v>242</v>
-      </c>
-      <c r="C42" t="n">
+        <v>368</v>
+      </c>
+      <c r="C42" s="2" t="n">
+        <v>45187</v>
+      </c>
+      <c r="D42" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45208</v>
+        <v>45200</v>
       </c>
       <c r="B43" t="n">
-        <v>282</v>
-      </c>
-      <c r="C43" t="n">
+        <v>228</v>
+      </c>
+      <c r="C43" s="2" t="n">
+        <v>45194</v>
+      </c>
+      <c r="D43" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45215</v>
+        <v>45207</v>
       </c>
       <c r="B44" t="n">
-        <v>274</v>
-      </c>
-      <c r="C44" t="n">
+        <v>242</v>
+      </c>
+      <c r="C44" s="2" t="n">
+        <v>45201</v>
+      </c>
+      <c r="D44" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45222</v>
+        <v>45214</v>
       </c>
       <c r="B45" t="n">
-        <v>243</v>
-      </c>
-      <c r="C45" t="n">
+        <v>282</v>
+      </c>
+      <c r="C45" s="2" t="n">
+        <v>45208</v>
+      </c>
+      <c r="D45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45229</v>
+        <v>45221</v>
       </c>
       <c r="B46" t="n">
-        <v>369</v>
-      </c>
-      <c r="C46" t="n">
+        <v>274</v>
+      </c>
+      <c r="C46" s="2" t="n">
+        <v>45215</v>
+      </c>
+      <c r="D46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45236</v>
+        <v>45228</v>
       </c>
       <c r="B47" t="n">
-        <v>561</v>
-      </c>
-      <c r="C47" t="n">
+        <v>243</v>
+      </c>
+      <c r="C47" s="2" t="n">
+        <v>45222</v>
+      </c>
+      <c r="D47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45243</v>
+        <v>45235</v>
       </c>
       <c r="B48" t="n">
-        <v>634</v>
-      </c>
-      <c r="C48" t="n">
+        <v>369</v>
+      </c>
+      <c r="C48" s="2" t="n">
+        <v>45229</v>
+      </c>
+      <c r="D48" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45250</v>
+        <v>45242</v>
       </c>
       <c r="B49" t="n">
-        <v>597</v>
-      </c>
-      <c r="C49" t="n">
+        <v>561</v>
+      </c>
+      <c r="C49" s="2" t="n">
+        <v>45236</v>
+      </c>
+      <c r="D49" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45257</v>
+        <v>45249</v>
       </c>
       <c r="B50" t="n">
-        <v>699</v>
-      </c>
-      <c r="C50" t="n">
+        <v>634</v>
+      </c>
+      <c r="C50" s="2" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D50" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45264</v>
+        <v>45256</v>
       </c>
       <c r="B51" t="n">
-        <v>676</v>
-      </c>
-      <c r="C51" t="n">
+        <v>597</v>
+      </c>
+      <c r="C51" s="2" t="n">
+        <v>45250</v>
+      </c>
+      <c r="D51" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45271</v>
+        <v>45263</v>
       </c>
       <c r="B52" t="n">
-        <v>621</v>
-      </c>
-      <c r="C52" t="n">
+        <v>699</v>
+      </c>
+      <c r="C52" s="2" t="n">
+        <v>45257</v>
+      </c>
+      <c r="D52" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45285</v>
+        <v>45270</v>
       </c>
       <c r="B53" t="n">
-        <v>658</v>
-      </c>
-      <c r="C53" t="n">
+        <v>676</v>
+      </c>
+      <c r="C53" s="2" t="n">
+        <v>45264</v>
+      </c>
+      <c r="D53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45292</v>
+        <v>45277</v>
       </c>
       <c r="B54" t="n">
-        <v>580</v>
-      </c>
-      <c r="C54" t="n">
-        <v>1710</v>
+        <v>621</v>
+      </c>
+      <c r="C54" s="2" t="n">
+        <v>45271</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45299</v>
+        <v>45291</v>
       </c>
       <c r="B55" t="n">
-        <v>552</v>
-      </c>
-      <c r="C55" t="n">
-        <v>1080</v>
+        <v>658</v>
+      </c>
+      <c r="C55" s="2" t="n">
+        <v>45285</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45306</v>
+        <v>45298</v>
       </c>
       <c r="B56" t="n">
-        <v>496</v>
-      </c>
-      <c r="C56" t="n">
-        <v>1050</v>
+        <v>580</v>
+      </c>
+      <c r="C56" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45313</v>
+        <v>45305</v>
       </c>
       <c r="B57" t="n">
-        <v>508</v>
-      </c>
-      <c r="C57" t="n">
-        <v>420</v>
+        <v>552</v>
+      </c>
+      <c r="C57" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45320</v>
+        <v>45312</v>
       </c>
       <c r="B58" t="n">
-        <v>531</v>
-      </c>
-      <c r="C58" t="n">
-        <v>1350</v>
+        <v>496</v>
+      </c>
+      <c r="C58" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45327</v>
+        <v>45319</v>
       </c>
       <c r="B59" t="n">
-        <v>506</v>
-      </c>
-      <c r="C59" t="n">
-        <v>2010</v>
+        <v>508</v>
+      </c>
+      <c r="C59" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45334</v>
+        <v>45326</v>
       </c>
       <c r="B60" t="n">
-        <v>559</v>
-      </c>
-      <c r="C60" t="n">
-        <v>1050</v>
+        <v>531</v>
+      </c>
+      <c r="C60" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45341</v>
+        <v>45333</v>
       </c>
       <c r="B61" t="n">
-        <v>553</v>
-      </c>
-      <c r="C61" t="n">
-        <v>1560</v>
+        <v>506</v>
+      </c>
+      <c r="C61" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45348</v>
+        <v>45340</v>
       </c>
       <c r="B62" t="n">
-        <v>476</v>
-      </c>
-      <c r="C62" t="n">
-        <v>1620</v>
+        <v>559</v>
+      </c>
+      <c r="C62" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45355</v>
+        <v>45347</v>
       </c>
       <c r="B63" t="n">
-        <v>455</v>
-      </c>
-      <c r="C63" t="n">
-        <v>960</v>
+        <v>553</v>
+      </c>
+      <c r="C63" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45362</v>
+        <v>45354</v>
       </c>
       <c r="B64" t="n">
-        <v>534</v>
-      </c>
-      <c r="C64" t="n">
-        <v>280</v>
+        <v>476</v>
+      </c>
+      <c r="C64" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45369</v>
+        <v>45361</v>
       </c>
       <c r="B65" t="n">
-        <v>473</v>
-      </c>
-      <c r="C65" t="n">
-        <v>410</v>
+        <v>455</v>
+      </c>
+      <c r="C65" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45376</v>
+        <v>45368</v>
       </c>
       <c r="B66" t="n">
-        <v>473</v>
-      </c>
-      <c r="C66" t="n">
-        <v>660</v>
+        <v>534</v>
+      </c>
+      <c r="C66" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45383</v>
+        <v>45375</v>
       </c>
       <c r="B67" t="n">
-        <v>575</v>
-      </c>
-      <c r="C67" t="n">
-        <v>960</v>
+        <v>473</v>
+      </c>
+      <c r="C67" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45390</v>
+        <v>45382</v>
       </c>
       <c r="B68" t="n">
-        <v>563</v>
-      </c>
-      <c r="C68" t="n">
-        <v>600</v>
+        <v>473</v>
+      </c>
+      <c r="C68" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="D68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45397</v>
+        <v>45389</v>
       </c>
       <c r="B69" t="n">
-        <v>581</v>
-      </c>
-      <c r="C69" t="n">
-        <v>1700</v>
+        <v>575</v>
+      </c>
+      <c r="C69" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="D69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45404</v>
+        <v>45396</v>
       </c>
       <c r="B70" t="n">
-        <v>577</v>
-      </c>
-      <c r="C70" t="n">
-        <v>1580</v>
+        <v>563</v>
+      </c>
+      <c r="C70" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="D70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45411</v>
+        <v>45403</v>
       </c>
       <c r="B71" t="n">
-        <v>692</v>
-      </c>
-      <c r="C71" t="n">
-        <v>1700</v>
+        <v>581</v>
+      </c>
+      <c r="C71" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="D71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45418</v>
+        <v>45410</v>
       </c>
       <c r="B72" t="n">
-        <v>712</v>
-      </c>
-      <c r="C72" t="n">
-        <v>2180</v>
+        <v>577</v>
+      </c>
+      <c r="C72" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="D72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45425</v>
+        <v>45417</v>
       </c>
       <c r="B73" t="n">
-        <v>705</v>
-      </c>
-      <c r="C73" t="n">
-        <v>3680</v>
+        <v>692</v>
+      </c>
+      <c r="C73" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="D73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45432</v>
+        <v>45424</v>
       </c>
       <c r="B74" t="n">
-        <v>706</v>
-      </c>
-      <c r="C74" t="n">
-        <v>100</v>
+        <v>712</v>
+      </c>
+      <c r="C74" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="D74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45439</v>
+        <v>45431</v>
       </c>
       <c r="B75" t="n">
-        <v>599</v>
-      </c>
-      <c r="C75" t="n">
-        <v>1860</v>
+        <v>705</v>
+      </c>
+      <c r="C75" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="D75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45446</v>
+        <v>45438</v>
       </c>
       <c r="B76" t="n">
-        <v>786</v>
-      </c>
-      <c r="C76" t="n">
-        <v>1640</v>
+        <v>706</v>
+      </c>
+      <c r="C76" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="D76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45453</v>
+        <v>45445</v>
       </c>
       <c r="B77" t="n">
-        <v>809</v>
-      </c>
-      <c r="C77" t="n">
-        <v>2200</v>
+        <v>599</v>
+      </c>
+      <c r="C77" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="D77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45460</v>
+        <v>45452</v>
       </c>
       <c r="B78" t="n">
-        <v>792</v>
-      </c>
-      <c r="C78" t="n">
-        <v>4460</v>
+        <v>786</v>
+      </c>
+      <c r="C78" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="D78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45467</v>
+        <v>45459</v>
       </c>
       <c r="B79" t="n">
-        <v>675</v>
-      </c>
-      <c r="C79" t="n">
-        <v>1040</v>
+        <v>809</v>
+      </c>
+      <c r="C79" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="D79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45474</v>
+        <v>45466</v>
       </c>
       <c r="B80" t="n">
-        <v>710</v>
-      </c>
-      <c r="C80" t="n">
+        <v>792</v>
+      </c>
+      <c r="C80" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="D80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45481</v>
+        <v>45473</v>
       </c>
       <c r="B81" t="n">
-        <v>839</v>
-      </c>
-      <c r="C81" t="n">
-        <v>1800</v>
+        <v>675</v>
+      </c>
+      <c r="C81" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="D81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45488</v>
+        <v>45480</v>
       </c>
       <c r="B82" t="n">
-        <v>849</v>
-      </c>
-      <c r="C82" t="n">
-        <v>3700</v>
+        <v>710</v>
+      </c>
+      <c r="C82" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="D82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45495</v>
+        <v>45487</v>
       </c>
       <c r="B83" t="n">
-        <v>792</v>
-      </c>
-      <c r="C83" t="n">
-        <v>1220</v>
+        <v>839</v>
+      </c>
+      <c r="C83" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="D83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45502</v>
+        <v>45494</v>
       </c>
       <c r="B84" t="n">
-        <v>748</v>
-      </c>
-      <c r="C84" t="n">
-        <v>2240</v>
+        <v>849</v>
+      </c>
+      <c r="C84" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="D84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45509</v>
+        <v>45501</v>
       </c>
       <c r="B85" t="n">
-        <v>734</v>
-      </c>
-      <c r="C85" t="n">
-        <v>2020</v>
+        <v>792</v>
+      </c>
+      <c r="C85" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="D85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45516</v>
+        <v>45508</v>
       </c>
       <c r="B86" t="n">
-        <v>721</v>
-      </c>
-      <c r="C86" t="n">
-        <v>1900</v>
+        <v>748</v>
+      </c>
+      <c r="C86" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="D86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45523</v>
+        <v>45515</v>
       </c>
       <c r="B87" t="n">
-        <v>4653</v>
-      </c>
-      <c r="C87" t="n">
-        <v>2920</v>
+        <v>734</v>
+      </c>
+      <c r="C87" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="D87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45530</v>
+        <v>45522</v>
       </c>
       <c r="B88" t="n">
-        <v>676</v>
-      </c>
-      <c r="C88" t="n">
+        <v>721</v>
+      </c>
+      <c r="C88" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="D88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45537</v>
+        <v>45529</v>
       </c>
       <c r="B89" t="n">
-        <v>648</v>
-      </c>
-      <c r="C89" t="n">
+        <v>4653</v>
+      </c>
+      <c r="C89" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="D89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45544</v>
+        <v>45536</v>
       </c>
       <c r="B90" t="n">
-        <v>584</v>
-      </c>
-      <c r="C90" t="n">
-        <v>2460</v>
+        <v>676</v>
+      </c>
+      <c r="C90" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="D90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45551</v>
+        <v>45543</v>
       </c>
       <c r="B91" t="n">
-        <v>633</v>
-      </c>
-      <c r="C91" t="n">
-        <v>2100</v>
+        <v>648</v>
+      </c>
+      <c r="C91" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="D91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45558</v>
+        <v>45550</v>
       </c>
       <c r="B92" t="n">
-        <v>689</v>
-      </c>
-      <c r="C92" t="n">
-        <v>680</v>
+        <v>584</v>
+      </c>
+      <c r="C92" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="D92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45565</v>
+        <v>45557</v>
       </c>
       <c r="B93" t="n">
-        <v>754</v>
-      </c>
-      <c r="C93" t="n">
-        <v>1420</v>
+        <v>633</v>
+      </c>
+      <c r="C93" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="D93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45572</v>
+        <v>45564</v>
       </c>
       <c r="B94" t="n">
-        <v>601</v>
-      </c>
-      <c r="C94" t="n">
-        <v>3420</v>
+        <v>689</v>
+      </c>
+      <c r="C94" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="D94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45579</v>
+        <v>45571</v>
       </c>
       <c r="B95" t="n">
-        <v>551</v>
-      </c>
-      <c r="C95" t="n">
-        <v>5100</v>
+        <v>754</v>
+      </c>
+      <c r="C95" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="D95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45586</v>
+        <v>45578</v>
       </c>
       <c r="B96" t="n">
-        <v>542</v>
-      </c>
-      <c r="C96" t="n">
+        <v>601</v>
+      </c>
+      <c r="C96" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="D96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45593</v>
+        <v>45585</v>
       </c>
       <c r="B97" t="n">
-        <v>480</v>
-      </c>
-      <c r="C97" t="n">
-        <v>1860</v>
+        <v>551</v>
+      </c>
+      <c r="C97" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="D97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45600</v>
+        <v>45592</v>
       </c>
       <c r="B98" t="n">
-        <v>663</v>
-      </c>
-      <c r="C98" t="n">
+        <v>542</v>
+      </c>
+      <c r="C98" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="D98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45607</v>
+        <v>45599</v>
       </c>
       <c r="B99" t="n">
-        <v>736</v>
-      </c>
-      <c r="C99" t="n">
+        <v>480</v>
+      </c>
+      <c r="C99" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="D99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45614</v>
+        <v>45606</v>
       </c>
       <c r="B100" t="n">
-        <v>776</v>
-      </c>
-      <c r="C100" t="n">
+        <v>663</v>
+      </c>
+      <c r="C100" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="D100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45621</v>
+        <v>45613</v>
       </c>
       <c r="B101" t="n">
-        <v>725</v>
-      </c>
-      <c r="C101" t="n">
+        <v>736</v>
+      </c>
+      <c r="C101" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="D101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45628</v>
+        <v>45620</v>
       </c>
       <c r="B102" t="n">
-        <v>508</v>
-      </c>
-      <c r="C102" t="n">
+        <v>776</v>
+      </c>
+      <c r="C102" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="D102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45635</v>
+        <v>45627</v>
       </c>
       <c r="B103" t="n">
-        <v>676</v>
-      </c>
-      <c r="C103" t="n">
+        <v>725</v>
+      </c>
+      <c r="C103" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="D103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45642</v>
+        <v>45634</v>
       </c>
       <c r="B104" t="n">
-        <v>663</v>
-      </c>
-      <c r="C104" t="n">
+        <v>508</v>
+      </c>
+      <c r="C104" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="D104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
+        <v>45641</v>
+      </c>
+      <c r="B105" t="n">
+        <v>676</v>
+      </c>
+      <c r="C105" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="D105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>45648</v>
+      </c>
+      <c r="B106" t="n">
+        <v>663</v>
+      </c>
+      <c r="C106" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="D106" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45655</v>
+      </c>
+      <c r="B107" t="n">
+        <v>546</v>
+      </c>
+      <c r="C107" s="2" t="n">
         <v>45649</v>
       </c>
-      <c r="B105" t="n">
-        <v>546</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0</v>
+      <c r="D107" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C41"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Requested_Qty</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Growth%</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45292</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1710</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45299</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1080</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-36.8421052631579</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45306</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-2.777777777777779</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45313</v>
+      </c>
+      <c r="B5" t="n">
+        <v>420</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45320</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C6" t="n">
+        <v>221.4285714285714</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45327</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C7" t="n">
+        <v>48.88888888888889</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45334</v>
+      </c>
+      <c r="B8" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-47.76119402985075</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45341</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1560</v>
+      </c>
+      <c r="C9" t="n">
+        <v>48.57142857142858</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45348</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1620</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.846153846153855</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45355</v>
+      </c>
+      <c r="B11" t="n">
+        <v>960</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-40.74074074074075</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45362</v>
+      </c>
+      <c r="B12" t="n">
+        <v>280</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-70.83333333333333</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45369</v>
+      </c>
+      <c r="B13" t="n">
+        <v>410</v>
+      </c>
+      <c r="C13" t="n">
+        <v>46.42857142857142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45376</v>
+      </c>
+      <c r="B14" t="n">
+        <v>660</v>
+      </c>
+      <c r="C14" t="n">
+        <v>60.97560975609757</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45383</v>
+      </c>
+      <c r="B15" t="n">
+        <v>960</v>
+      </c>
+      <c r="C15" t="n">
+        <v>45.45454545454546</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45390</v>
+      </c>
+      <c r="B16" t="n">
+        <v>600</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-37.5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45397</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C17" t="n">
+        <v>183.3333333333333</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45404</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1580</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-7.058823529411762</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45411</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C19" t="n">
+        <v>7.594936708860756</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45418</v>
+      </c>
+      <c r="B20" t="n">
+        <v>2180</v>
+      </c>
+      <c r="C20" t="n">
+        <v>28.23529411764707</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45425</v>
+      </c>
+      <c r="B21" t="n">
+        <v>3680</v>
+      </c>
+      <c r="C21" t="n">
+        <v>68.80733944954129</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45432</v>
+      </c>
+      <c r="B22" t="n">
+        <v>100</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-97.28260869565217</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45439</v>
+      </c>
+      <c r="B23" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B24" t="n">
+        <v>1640</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-11.82795698924731</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45453</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C25" t="n">
+        <v>34.14634146341464</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B26" t="n">
+        <v>4460</v>
+      </c>
+      <c r="C26" t="n">
+        <v>102.7272727272727</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-76.68161434977578</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C28" t="n">
+        <v>73.07692307692308</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B29" t="n">
+        <v>3700</v>
+      </c>
+      <c r="C29" t="n">
+        <v>105.5555555555555</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B30" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-67.02702702702703</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C31" t="n">
+        <v>83.60655737704919</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B32" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-9.821428571428569</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B33" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-5.940594059405946</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B34" t="n">
+        <v>2920</v>
+      </c>
+      <c r="C34" t="n">
+        <v>53.68421052631578</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B35" t="n">
+        <v>2460</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-15.75342465753424</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B36" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-14.63414634146342</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B37" t="n">
+        <v>680</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-67.61904761904762</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C38" t="n">
+        <v>108.8235294117647</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3420</v>
+      </c>
+      <c r="C39" t="n">
+        <v>140.8450704225352</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B40" t="n">
+        <v>5100</v>
+      </c>
+      <c r="C40" t="n">
+        <v>49.12280701754386</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-63.52941176470588</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Total_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Max_PO_Quantity</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Min_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>70700</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1767.5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>5100</v>
+      </c>
+      <c r="D2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Predicted_Next_Week_PO_Quantity</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>2709.538461538461</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B091HTG6DQ_sales_po_comparison.xlsx
+++ b/po forecast comparison/B091HTG6DQ_sales_po_comparison.xlsx
@@ -432,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D107"/>
+  <dimension ref="A1:C105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,1496 +453,1151 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Order Week</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>PO_Requested_Qty</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>44920</v>
+        <v>44920.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="n">
-        <v>44914</v>
-      </c>
-      <c r="D2" t="n">
+      <c r="C2" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>44927</v>
+        <v>44927.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>44921</v>
-      </c>
-      <c r="D3" t="n">
+      <c r="C3" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>44941</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>44935</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0</v>
+      <c r="C4" t="n">
+        <v>560</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>44948</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
+        <v>40</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1620</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>44948</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>40</v>
-      </c>
-      <c r="C6" s="2" t="n">
-        <v>44942</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>70</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>44955</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="2" t="n">
-        <v>44949</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>50</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>44962</v>
+        <v>44969.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D8" t="n">
+        <v>35</v>
+      </c>
+      <c r="C8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>44962</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
-      </c>
-      <c r="C9" s="2" t="n">
-        <v>44956</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
+        <v>168</v>
+      </c>
+      <c r="C9" t="n">
+        <v>270</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>44969</v>
+        <v>44983.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>35</v>
-      </c>
-      <c r="C10" s="2" t="n">
-        <v>44963</v>
-      </c>
-      <c r="D10" t="n">
+        <v>248</v>
+      </c>
+      <c r="C10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>44976</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>168</v>
-      </c>
-      <c r="C11" s="2" t="n">
-        <v>44970</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
+        <v>238</v>
+      </c>
+      <c r="C11" t="n">
+        <v>190</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>44983</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>248</v>
-      </c>
-      <c r="C12" s="2" t="n">
-        <v>44977</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
+        <v>245</v>
+      </c>
+      <c r="C12" t="n">
+        <v>260</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>44990</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>238</v>
-      </c>
-      <c r="C13" s="2" t="n">
-        <v>44984</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0</v>
+        <v>273</v>
+      </c>
+      <c r="C13" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>44997</v>
+        <v>45011.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>245</v>
-      </c>
-      <c r="C14" s="2" t="n">
-        <v>44991</v>
-      </c>
-      <c r="D14" t="n">
+        <v>243</v>
+      </c>
+      <c r="C14" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45004</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>273</v>
-      </c>
-      <c r="C15" s="2" t="n">
-        <v>44998</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
+        <v>271</v>
+      </c>
+      <c r="C15" t="n">
+        <v>210</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45011</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>243</v>
-      </c>
-      <c r="C16" s="2" t="n">
-        <v>45005</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
+        <v>263</v>
+      </c>
+      <c r="C16" t="n">
+        <v>390</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45018</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>271</v>
-      </c>
-      <c r="C17" s="2" t="n">
-        <v>45012</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
+        <v>313</v>
+      </c>
+      <c r="C17" t="n">
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45025</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>263</v>
-      </c>
-      <c r="C18" s="2" t="n">
-        <v>45019</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
+        <v>306</v>
+      </c>
+      <c r="C18" t="n">
+        <v>570</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45032</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>313</v>
-      </c>
-      <c r="C19" s="2" t="n">
-        <v>45026</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
+        <v>322</v>
+      </c>
+      <c r="C19" t="n">
+        <v>150</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45039</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>306</v>
-      </c>
-      <c r="C20" s="2" t="n">
-        <v>45033</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
+        <v>388</v>
+      </c>
+      <c r="C20" t="n">
+        <v>520</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45046</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>322</v>
-      </c>
-      <c r="C21" s="2" t="n">
-        <v>45040</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
+        <v>390</v>
+      </c>
+      <c r="C21" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45053</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>388</v>
-      </c>
-      <c r="C22" s="2" t="n">
-        <v>45047</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
+        <v>426</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1480</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45060</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>390</v>
-      </c>
-      <c r="C23" s="2" t="n">
-        <v>45054</v>
-      </c>
-      <c r="D23" t="n">
+        <v>382</v>
+      </c>
+      <c r="C23" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45067</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>426</v>
-      </c>
-      <c r="C24" s="2" t="n">
-        <v>45061</v>
-      </c>
-      <c r="D24" t="n">
+        <v>376</v>
+      </c>
+      <c r="C24" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45074</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>382</v>
-      </c>
-      <c r="C25" s="2" t="n">
-        <v>45068</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
+        <v>589</v>
+      </c>
+      <c r="C25" t="n">
+        <v>680</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45081</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>376</v>
-      </c>
-      <c r="C26" s="2" t="n">
-        <v>45075</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0</v>
+        <v>623</v>
+      </c>
+      <c r="C26" t="n">
+        <v>730</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45088</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>589</v>
-      </c>
-      <c r="C27" s="2" t="n">
-        <v>45082</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0</v>
+        <v>486</v>
+      </c>
+      <c r="C27" t="n">
+        <v>660</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45095</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>623</v>
-      </c>
-      <c r="C28" s="2" t="n">
-        <v>45089</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
+        <v>590</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1670</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45102</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>486</v>
-      </c>
-      <c r="C29" s="2" t="n">
-        <v>45096</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0</v>
+        <v>618</v>
+      </c>
+      <c r="C29" t="n">
+        <v>410</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45109</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>590</v>
-      </c>
-      <c r="C30" s="2" t="n">
-        <v>45103</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0</v>
+        <v>690</v>
+      </c>
+      <c r="C30" t="n">
+        <v>840</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45116</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>618</v>
-      </c>
-      <c r="C31" s="2" t="n">
-        <v>45110</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0</v>
+        <v>580</v>
+      </c>
+      <c r="C31" t="n">
+        <v>480</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45123</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>690</v>
-      </c>
-      <c r="C32" s="2" t="n">
-        <v>45117</v>
-      </c>
-      <c r="D32" t="n">
+        <v>654</v>
+      </c>
+      <c r="C32" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45130</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>580</v>
-      </c>
-      <c r="C33" s="2" t="n">
-        <v>45124</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0</v>
+        <v>898</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1360</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45137</v>
+        <v>45151.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>654</v>
-      </c>
-      <c r="C34" s="2" t="n">
-        <v>45131</v>
-      </c>
-      <c r="D34" t="n">
+        <v>811</v>
+      </c>
+      <c r="C34" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45144</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>898</v>
-      </c>
-      <c r="C35" s="2" t="n">
-        <v>45138</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0</v>
+        <v>524</v>
+      </c>
+      <c r="C35" t="n">
+        <v>890</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45151</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>811</v>
-      </c>
-      <c r="C36" s="2" t="n">
-        <v>45145</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0</v>
+        <v>434</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45158</v>
+        <v>45172.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>524</v>
-      </c>
-      <c r="C37" s="2" t="n">
-        <v>45152</v>
-      </c>
-      <c r="D37" t="n">
+        <v>701</v>
+      </c>
+      <c r="C37" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45165</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>434</v>
-      </c>
-      <c r="C38" s="2" t="n">
-        <v>45159</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0</v>
+        <v>763</v>
+      </c>
+      <c r="C38" t="n">
+        <v>40</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45172</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>701</v>
-      </c>
-      <c r="C39" s="2" t="n">
-        <v>45166</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0</v>
+        <v>692</v>
+      </c>
+      <c r="C39" t="n">
+        <v>660</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45179</v>
+        <v>45193.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>763</v>
-      </c>
-      <c r="C40" s="2" t="n">
-        <v>45173</v>
-      </c>
-      <c r="D40" t="n">
+        <v>368</v>
+      </c>
+      <c r="C40" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45186</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B41" t="n">
-        <v>692</v>
-      </c>
-      <c r="C41" s="2" t="n">
-        <v>45180</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0</v>
+        <v>228</v>
+      </c>
+      <c r="C41" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45193</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>368</v>
-      </c>
-      <c r="C42" s="2" t="n">
-        <v>45187</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0</v>
+        <v>242</v>
+      </c>
+      <c r="C42" t="n">
+        <v>3460</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45200</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>228</v>
-      </c>
-      <c r="C43" s="2" t="n">
-        <v>45194</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0</v>
+        <v>282</v>
+      </c>
+      <c r="C43" t="n">
+        <v>90</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45207</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>242</v>
-      </c>
-      <c r="C44" s="2" t="n">
-        <v>45201</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0</v>
+        <v>274</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1500</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45214</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>282</v>
-      </c>
-      <c r="C45" s="2" t="n">
-        <v>45208</v>
-      </c>
-      <c r="D45" t="n">
+        <v>243</v>
+      </c>
+      <c r="C45" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45221</v>
+        <v>45235.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>274</v>
-      </c>
-      <c r="C46" s="2" t="n">
-        <v>45215</v>
-      </c>
-      <c r="D46" t="n">
+        <v>369</v>
+      </c>
+      <c r="C46" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45228</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>243</v>
-      </c>
-      <c r="C47" s="2" t="n">
-        <v>45222</v>
-      </c>
-      <c r="D47" t="n">
+        <v>561</v>
+      </c>
+      <c r="C47" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>45235</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B48" t="n">
-        <v>369</v>
-      </c>
-      <c r="C48" s="2" t="n">
-        <v>45229</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0</v>
+        <v>634</v>
+      </c>
+      <c r="C48" t="n">
+        <v>760</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>45242</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B49" t="n">
-        <v>561</v>
-      </c>
-      <c r="C49" s="2" t="n">
-        <v>45236</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0</v>
+        <v>597</v>
+      </c>
+      <c r="C49" t="n">
+        <v>750</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>45249</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B50" t="n">
-        <v>634</v>
-      </c>
-      <c r="C50" s="2" t="n">
-        <v>45243</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0</v>
+        <v>699</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1430</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>45256</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B51" t="n">
-        <v>597</v>
-      </c>
-      <c r="C51" s="2" t="n">
-        <v>45250</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0</v>
+        <v>676</v>
+      </c>
+      <c r="C51" t="n">
+        <v>160</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>45263</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B52" t="n">
-        <v>699</v>
-      </c>
-      <c r="C52" s="2" t="n">
-        <v>45257</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0</v>
+        <v>621</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1180</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>45270</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B53" t="n">
-        <v>676</v>
-      </c>
-      <c r="C53" s="2" t="n">
-        <v>45264</v>
-      </c>
-      <c r="D53" t="n">
+        <v>658</v>
+      </c>
+      <c r="C53" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>45277</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B54" t="n">
-        <v>621</v>
-      </c>
-      <c r="C54" s="2" t="n">
-        <v>45271</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0</v>
+        <v>580</v>
+      </c>
+      <c r="C54" t="n">
+        <v>1710</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>45291</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B55" t="n">
-        <v>658</v>
-      </c>
-      <c r="C55" s="2" t="n">
-        <v>45285</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0</v>
+        <v>552</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1080</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>45298</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B56" t="n">
-        <v>580</v>
-      </c>
-      <c r="C56" s="2" t="n">
-        <v>45292</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0</v>
+        <v>496</v>
+      </c>
+      <c r="C56" t="n">
+        <v>1050</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>45305</v>
+        <v>45319.99999999999</v>
       </c>
       <c r="B57" t="n">
-        <v>552</v>
-      </c>
-      <c r="C57" s="2" t="n">
-        <v>45299</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0</v>
+        <v>508</v>
+      </c>
+      <c r="C57" t="n">
+        <v>420</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>45312</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B58" t="n">
-        <v>496</v>
-      </c>
-      <c r="C58" s="2" t="n">
-        <v>45306</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0</v>
+        <v>531</v>
+      </c>
+      <c r="C58" t="n">
+        <v>1350</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>45319</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B59" t="n">
-        <v>508</v>
-      </c>
-      <c r="C59" s="2" t="n">
-        <v>45313</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0</v>
+        <v>506</v>
+      </c>
+      <c r="C59" t="n">
+        <v>2010</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>45326</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B60" t="n">
-        <v>531</v>
-      </c>
-      <c r="C60" s="2" t="n">
-        <v>45320</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0</v>
+        <v>559</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1050</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>45333</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B61" t="n">
-        <v>506</v>
-      </c>
-      <c r="C61" s="2" t="n">
-        <v>45327</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0</v>
+        <v>553</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1560</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>45340</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B62" t="n">
-        <v>559</v>
-      </c>
-      <c r="C62" s="2" t="n">
-        <v>45334</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0</v>
+        <v>476</v>
+      </c>
+      <c r="C62" t="n">
+        <v>1620</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>45347</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B63" t="n">
-        <v>553</v>
-      </c>
-      <c r="C63" s="2" t="n">
-        <v>45341</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0</v>
+        <v>455</v>
+      </c>
+      <c r="C63" t="n">
+        <v>960</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>45354</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B64" t="n">
-        <v>476</v>
-      </c>
-      <c r="C64" s="2" t="n">
-        <v>45348</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0</v>
+        <v>534</v>
+      </c>
+      <c r="C64" t="n">
+        <v>280</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>45361</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B65" t="n">
-        <v>455</v>
-      </c>
-      <c r="C65" s="2" t="n">
-        <v>45355</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0</v>
+        <v>473</v>
+      </c>
+      <c r="C65" t="n">
+        <v>410</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>45368</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B66" t="n">
-        <v>534</v>
-      </c>
-      <c r="C66" s="2" t="n">
-        <v>45362</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0</v>
+        <v>473</v>
+      </c>
+      <c r="C66" t="n">
+        <v>660</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>45375</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B67" t="n">
-        <v>473</v>
-      </c>
-      <c r="C67" s="2" t="n">
-        <v>45369</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0</v>
+        <v>575</v>
+      </c>
+      <c r="C67" t="n">
+        <v>960</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>45382</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B68" t="n">
-        <v>473</v>
-      </c>
-      <c r="C68" s="2" t="n">
-        <v>45376</v>
-      </c>
-      <c r="D68" t="n">
-        <v>0</v>
+        <v>563</v>
+      </c>
+      <c r="C68" t="n">
+        <v>600</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>45389</v>
+        <v>45403.99999999999</v>
       </c>
       <c r="B69" t="n">
-        <v>575</v>
-      </c>
-      <c r="C69" s="2" t="n">
-        <v>45383</v>
-      </c>
-      <c r="D69" t="n">
-        <v>0</v>
+        <v>581</v>
+      </c>
+      <c r="C69" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>45396</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B70" t="n">
-        <v>563</v>
-      </c>
-      <c r="C70" s="2" t="n">
-        <v>45390</v>
-      </c>
-      <c r="D70" t="n">
-        <v>0</v>
+        <v>577</v>
+      </c>
+      <c r="C70" t="n">
+        <v>1580</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>45403</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B71" t="n">
-        <v>581</v>
-      </c>
-      <c r="C71" s="2" t="n">
-        <v>45397</v>
-      </c>
-      <c r="D71" t="n">
-        <v>0</v>
+        <v>692</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1700</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>45410</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B72" t="n">
-        <v>577</v>
-      </c>
-      <c r="C72" s="2" t="n">
-        <v>45404</v>
-      </c>
-      <c r="D72" t="n">
-        <v>0</v>
+        <v>712</v>
+      </c>
+      <c r="C72" t="n">
+        <v>2180</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>45417</v>
+        <v>45431.99999999999</v>
       </c>
       <c r="B73" t="n">
-        <v>692</v>
-      </c>
-      <c r="C73" s="2" t="n">
-        <v>45411</v>
-      </c>
-      <c r="D73" t="n">
-        <v>0</v>
+        <v>705</v>
+      </c>
+      <c r="C73" t="n">
+        <v>3680</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>45424</v>
+        <v>45438.99999999999</v>
       </c>
       <c r="B74" t="n">
-        <v>712</v>
-      </c>
-      <c r="C74" s="2" t="n">
-        <v>45418</v>
-      </c>
-      <c r="D74" t="n">
-        <v>0</v>
+        <v>706</v>
+      </c>
+      <c r="C74" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>45431</v>
+        <v>45445.99999999999</v>
       </c>
       <c r="B75" t="n">
-        <v>705</v>
-      </c>
-      <c r="C75" s="2" t="n">
-        <v>45425</v>
-      </c>
-      <c r="D75" t="n">
-        <v>0</v>
+        <v>599</v>
+      </c>
+      <c r="C75" t="n">
+        <v>1860</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>45438</v>
+        <v>45452.99999999999</v>
       </c>
       <c r="B76" t="n">
-        <v>706</v>
-      </c>
-      <c r="C76" s="2" t="n">
-        <v>45432</v>
-      </c>
-      <c r="D76" t="n">
-        <v>0</v>
+        <v>786</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1640</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>45445</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B77" t="n">
-        <v>599</v>
-      </c>
-      <c r="C77" s="2" t="n">
-        <v>45439</v>
-      </c>
-      <c r="D77" t="n">
-        <v>0</v>
+        <v>809</v>
+      </c>
+      <c r="C77" t="n">
+        <v>2200</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>45452</v>
+        <v>45466.99999999999</v>
       </c>
       <c r="B78" t="n">
-        <v>786</v>
-      </c>
-      <c r="C78" s="2" t="n">
-        <v>45446</v>
-      </c>
-      <c r="D78" t="n">
-        <v>0</v>
+        <v>792</v>
+      </c>
+      <c r="C78" t="n">
+        <v>4460</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>45459</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B79" t="n">
-        <v>809</v>
-      </c>
-      <c r="C79" s="2" t="n">
-        <v>45453</v>
-      </c>
-      <c r="D79" t="n">
-        <v>0</v>
+        <v>675</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1040</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>45466</v>
+        <v>45480.99999999999</v>
       </c>
       <c r="B80" t="n">
-        <v>792</v>
-      </c>
-      <c r="C80" s="2" t="n">
-        <v>45460</v>
-      </c>
-      <c r="D80" t="n">
+        <v>710</v>
+      </c>
+      <c r="C80" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>45473</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B81" t="n">
-        <v>675</v>
-      </c>
-      <c r="C81" s="2" t="n">
-        <v>45467</v>
-      </c>
-      <c r="D81" t="n">
-        <v>0</v>
+        <v>839</v>
+      </c>
+      <c r="C81" t="n">
+        <v>1800</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>45480</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B82" t="n">
-        <v>710</v>
-      </c>
-      <c r="C82" s="2" t="n">
-        <v>45474</v>
-      </c>
-      <c r="D82" t="n">
-        <v>0</v>
+        <v>849</v>
+      </c>
+      <c r="C82" t="n">
+        <v>3700</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>45487</v>
+        <v>45501.99999999999</v>
       </c>
       <c r="B83" t="n">
-        <v>839</v>
-      </c>
-      <c r="C83" s="2" t="n">
-        <v>45481</v>
-      </c>
-      <c r="D83" t="n">
-        <v>0</v>
+        <v>792</v>
+      </c>
+      <c r="C83" t="n">
+        <v>1220</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>45494</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B84" t="n">
-        <v>849</v>
-      </c>
-      <c r="C84" s="2" t="n">
-        <v>45488</v>
-      </c>
-      <c r="D84" t="n">
-        <v>0</v>
+        <v>748</v>
+      </c>
+      <c r="C84" t="n">
+        <v>2240</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>45501</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B85" t="n">
-        <v>792</v>
-      </c>
-      <c r="C85" s="2" t="n">
-        <v>45495</v>
-      </c>
-      <c r="D85" t="n">
-        <v>0</v>
+        <v>734</v>
+      </c>
+      <c r="C85" t="n">
+        <v>2020</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>45508</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B86" t="n">
-        <v>748</v>
-      </c>
-      <c r="C86" s="2" t="n">
-        <v>45502</v>
-      </c>
-      <c r="D86" t="n">
-        <v>0</v>
+        <v>721</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1900</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>45515</v>
+        <v>45529.99999999999</v>
       </c>
       <c r="B87" t="n">
-        <v>734</v>
-      </c>
-      <c r="C87" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="D87" t="n">
-        <v>0</v>
+        <v>4653</v>
+      </c>
+      <c r="C87" t="n">
+        <v>2920</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>45522</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B88" t="n">
-        <v>721</v>
-      </c>
-      <c r="C88" s="2" t="n">
-        <v>45516</v>
-      </c>
-      <c r="D88" t="n">
+        <v>676</v>
+      </c>
+      <c r="C88" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>45529</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B89" t="n">
-        <v>4653</v>
-      </c>
-      <c r="C89" s="2" t="n">
-        <v>45523</v>
-      </c>
-      <c r="D89" t="n">
+        <v>648</v>
+      </c>
+      <c r="C89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>45536</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B90" t="n">
-        <v>676</v>
-      </c>
-      <c r="C90" s="2" t="n">
-        <v>45530</v>
-      </c>
-      <c r="D90" t="n">
-        <v>0</v>
+        <v>584</v>
+      </c>
+      <c r="C90" t="n">
+        <v>2460</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>45543</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B91" t="n">
-        <v>648</v>
-      </c>
-      <c r="C91" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="D91" t="n">
-        <v>0</v>
+        <v>633</v>
+      </c>
+      <c r="C91" t="n">
+        <v>2100</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>45550</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B92" t="n">
-        <v>584</v>
-      </c>
-      <c r="C92" s="2" t="n">
-        <v>45544</v>
-      </c>
-      <c r="D92" t="n">
-        <v>0</v>
+        <v>689</v>
+      </c>
+      <c r="C92" t="n">
+        <v>680</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>45557</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B93" t="n">
-        <v>633</v>
-      </c>
-      <c r="C93" s="2" t="n">
-        <v>45551</v>
-      </c>
-      <c r="D93" t="n">
-        <v>0</v>
+        <v>754</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1420</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>45564</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B94" t="n">
-        <v>689</v>
-      </c>
-      <c r="C94" s="2" t="n">
-        <v>45558</v>
-      </c>
-      <c r="D94" t="n">
-        <v>0</v>
+        <v>601</v>
+      </c>
+      <c r="C94" t="n">
+        <v>3420</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>45571</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B95" t="n">
-        <v>754</v>
-      </c>
-      <c r="C95" s="2" t="n">
-        <v>45565</v>
-      </c>
-      <c r="D95" t="n">
-        <v>0</v>
+        <v>551</v>
+      </c>
+      <c r="C95" t="n">
+        <v>5100</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>45578</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B96" t="n">
-        <v>601</v>
-      </c>
-      <c r="C96" s="2" t="n">
-        <v>45572</v>
-      </c>
-      <c r="D96" t="n">
+        <v>542</v>
+      </c>
+      <c r="C96" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>45585</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B97" t="n">
-        <v>551</v>
-      </c>
-      <c r="C97" s="2" t="n">
-        <v>45579</v>
-      </c>
-      <c r="D97" t="n">
-        <v>0</v>
+        <v>480</v>
+      </c>
+      <c r="C97" t="n">
+        <v>1860</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>45592</v>
+        <v>45606.99999999999</v>
       </c>
       <c r="B98" t="n">
-        <v>542</v>
-      </c>
-      <c r="C98" s="2" t="n">
-        <v>45586</v>
-      </c>
-      <c r="D98" t="n">
+        <v>663</v>
+      </c>
+      <c r="C98" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>45599</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B99" t="n">
-        <v>480</v>
-      </c>
-      <c r="C99" s="2" t="n">
-        <v>45593</v>
-      </c>
-      <c r="D99" t="n">
+        <v>736</v>
+      </c>
+      <c r="C99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>45606</v>
+        <v>45620.99999999999</v>
       </c>
       <c r="B100" t="n">
-        <v>663</v>
-      </c>
-      <c r="C100" s="2" t="n">
-        <v>45600</v>
-      </c>
-      <c r="D100" t="n">
+        <v>776</v>
+      </c>
+      <c r="C100" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>45613</v>
+        <v>45627.99999999999</v>
       </c>
       <c r="B101" t="n">
-        <v>736</v>
-      </c>
-      <c r="C101" s="2" t="n">
-        <v>45607</v>
-      </c>
-      <c r="D101" t="n">
+        <v>725</v>
+      </c>
+      <c r="C101" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>45620</v>
+        <v>45634.99999999999</v>
       </c>
       <c r="B102" t="n">
-        <v>776</v>
-      </c>
-      <c r="C102" s="2" t="n">
-        <v>45614</v>
-      </c>
-      <c r="D102" t="n">
+        <v>508</v>
+      </c>
+      <c r="C102" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>45627</v>
+        <v>45641.99999999999</v>
       </c>
       <c r="B103" t="n">
-        <v>725</v>
-      </c>
-      <c r="C103" s="2" t="n">
-        <v>45621</v>
-      </c>
-      <c r="D103" t="n">
+        <v>676</v>
+      </c>
+      <c r="C103" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>45634</v>
+        <v>45648.99999999999</v>
       </c>
       <c r="B104" t="n">
-        <v>508</v>
-      </c>
-      <c r="C104" s="2" t="n">
-        <v>45628</v>
-      </c>
-      <c r="D104" t="n">
+        <v>663</v>
+      </c>
+      <c r="C104" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>45641</v>
+        <v>45655.99999999999</v>
       </c>
       <c r="B105" t="n">
-        <v>676</v>
-      </c>
-      <c r="C105" s="2" t="n">
-        <v>45635</v>
-      </c>
-      <c r="D105" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
-        <v>45648</v>
-      </c>
-      <c r="B106" t="n">
-        <v>663</v>
-      </c>
-      <c r="C106" s="2" t="n">
-        <v>45642</v>
-      </c>
-      <c r="D106" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
-        <v>45655</v>
-      </c>
-      <c r="B107" t="n">
         <v>546</v>
       </c>
-      <c r="C107" s="2" t="n">
-        <v>45649</v>
-      </c>
-      <c r="D107" t="n">
+      <c r="C105" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1957,7 +1612,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1984,10 +1639,10 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>44941.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>1710</v>
+        <v>560</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1995,430 +1650,837 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>44948.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>1080</v>
+        <v>1620</v>
       </c>
       <c r="C3" t="n">
-        <v>-36.8421052631579</v>
+        <v>189.2857142857143</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>44955.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>1050</v>
+        <v>70</v>
       </c>
       <c r="C4" t="n">
-        <v>-2.777777777777779</v>
+        <v>-95.67901234567901</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45313</v>
+        <v>44962.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>420</v>
+        <v>50</v>
       </c>
       <c r="C5" t="n">
-        <v>-60</v>
+        <v>-28.57142857142857</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45320</v>
+        <v>44976.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>1350</v>
+        <v>270</v>
       </c>
       <c r="C6" t="n">
-        <v>221.4285714285714</v>
+        <v>440.0000000000001</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45327</v>
+        <v>44990.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>2010</v>
+        <v>190</v>
       </c>
       <c r="C7" t="n">
-        <v>48.88888888888889</v>
+        <v>-29.62962962962963</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45334</v>
+        <v>44997.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>1050</v>
+        <v>260</v>
       </c>
       <c r="C8" t="n">
-        <v>-47.76119402985075</v>
+        <v>36.8421052631579</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45341</v>
+        <v>45004.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>1560</v>
+        <v>100</v>
       </c>
       <c r="C9" t="n">
-        <v>48.57142857142858</v>
+        <v>-61.53846153846154</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45348</v>
+        <v>45018.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>1620</v>
+        <v>210</v>
       </c>
       <c r="C10" t="n">
-        <v>3.846153846153855</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45355</v>
+        <v>45025.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>960</v>
+        <v>390</v>
       </c>
       <c r="C11" t="n">
-        <v>-40.74074074074075</v>
+        <v>85.71428571428572</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45362</v>
+        <v>45032.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="C12" t="n">
-        <v>-70.83333333333333</v>
+        <v>-94.87179487179486</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45369</v>
+        <v>45039.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>410</v>
+        <v>570</v>
       </c>
       <c r="C13" t="n">
-        <v>46.42857142857142</v>
+        <v>2750</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45376</v>
+        <v>45046.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>660</v>
+        <v>150</v>
       </c>
       <c r="C14" t="n">
-        <v>60.97560975609757</v>
+        <v>-73.68421052631579</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45383</v>
+        <v>45053.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>960</v>
+        <v>520</v>
       </c>
       <c r="C15" t="n">
-        <v>45.45454545454546</v>
+        <v>246.6666666666667</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45390</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>600</v>
+        <v>280</v>
       </c>
       <c r="C16" t="n">
-        <v>-37.5</v>
+        <v>-46.15384615384615</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45397</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1700</v>
+        <v>1480</v>
       </c>
       <c r="C17" t="n">
-        <v>183.3333333333333</v>
+        <v>428.5714285714286</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45404</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>1580</v>
+        <v>680</v>
       </c>
       <c r="C18" t="n">
-        <v>-7.058823529411762</v>
+        <v>-54.05405405405406</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45411</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>1700</v>
+        <v>730</v>
       </c>
       <c r="C19" t="n">
-        <v>7.594936708860756</v>
+        <v>7.352941176470584</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45418</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>2180</v>
+        <v>660</v>
       </c>
       <c r="C20" t="n">
-        <v>28.23529411764707</v>
+        <v>-9.589041095890416</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45425</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>3680</v>
+        <v>1670</v>
       </c>
       <c r="C21" t="n">
-        <v>68.80733944954129</v>
+        <v>153.030303030303</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45432</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>100</v>
+        <v>410</v>
       </c>
       <c r="C22" t="n">
-        <v>-97.28260869565217</v>
+        <v>-75.44910179640718</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45439</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>1860</v>
+        <v>840</v>
       </c>
       <c r="C23" t="n">
-        <v>1760</v>
+        <v>104.8780487804878</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45446</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>1640</v>
+        <v>480</v>
       </c>
       <c r="C24" t="n">
-        <v>-11.82795698924731</v>
+        <v>-42.85714285714286</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45453</v>
+        <v>45144.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>2200</v>
+        <v>1360</v>
       </c>
       <c r="C25" t="n">
-        <v>34.14634146341464</v>
+        <v>183.3333333333333</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45460</v>
+        <v>45158.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>4460</v>
+        <v>890</v>
       </c>
       <c r="C26" t="n">
-        <v>102.7272727272727</v>
+        <v>-34.55882352941176</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45467</v>
+        <v>45165.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>1040</v>
+        <v>1700</v>
       </c>
       <c r="C27" t="n">
-        <v>-76.68161434977578</v>
+        <v>91.01123595505618</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45481</v>
+        <v>45179.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>1800</v>
+        <v>40</v>
       </c>
       <c r="C28" t="n">
-        <v>73.07692307692308</v>
+        <v>-97.64705882352941</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45488</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>3700</v>
+        <v>660</v>
       </c>
       <c r="C29" t="n">
-        <v>105.5555555555555</v>
+        <v>1550</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45495</v>
+        <v>45200.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>1220</v>
+        <v>760</v>
       </c>
       <c r="C30" t="n">
-        <v>-67.02702702702703</v>
+        <v>15.15151515151516</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45502</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>2240</v>
+        <v>3460</v>
       </c>
       <c r="C31" t="n">
-        <v>83.60655737704919</v>
+        <v>355.2631578947368</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45509</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>2020</v>
+        <v>90</v>
       </c>
       <c r="C32" t="n">
-        <v>-9.821428571428569</v>
+        <v>-97.39884393063583</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45516</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>1900</v>
+        <v>1500</v>
       </c>
       <c r="C33" t="n">
-        <v>-5.940594059405946</v>
+        <v>1566.666666666667</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45523</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>2920</v>
+        <v>760</v>
       </c>
       <c r="C34" t="n">
-        <v>53.68421052631578</v>
+        <v>-49.33333333333333</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45544</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>2460</v>
+        <v>750</v>
       </c>
       <c r="C35" t="n">
-        <v>-15.75342465753424</v>
+        <v>-1.315789473684215</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45551</v>
+        <v>45263.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>2100</v>
+        <v>1430</v>
       </c>
       <c r="C36" t="n">
-        <v>-14.63414634146342</v>
+        <v>90.66666666666667</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45558</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>680</v>
+        <v>160</v>
       </c>
       <c r="C37" t="n">
-        <v>-67.61904761904762</v>
+        <v>-88.81118881118881</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45565</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B38" t="n">
-        <v>1420</v>
+        <v>1180</v>
       </c>
       <c r="C38" t="n">
-        <v>108.8235294117647</v>
+        <v>637.5</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45572</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>3420</v>
+        <v>1710</v>
       </c>
       <c r="C39" t="n">
-        <v>140.8450704225352</v>
+        <v>44.91525423728812</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45579</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>5100</v>
+        <v>1080</v>
       </c>
       <c r="C40" t="n">
-        <v>49.12280701754386</v>
+        <v>-36.8421052631579</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45593</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B41" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-2.777777777777779</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45319.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>420</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-60</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1350</v>
+      </c>
+      <c r="C43" t="n">
+        <v>221.4285714285714</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>2010</v>
+      </c>
+      <c r="C44" t="n">
+        <v>48.88888888888889</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1050</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-47.76119402985075</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1560</v>
+      </c>
+      <c r="C46" t="n">
+        <v>48.57142857142858</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1620</v>
+      </c>
+      <c r="C47" t="n">
+        <v>3.846153846153855</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>960</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-40.74074074074075</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>280</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-70.83333333333333</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>410</v>
+      </c>
+      <c r="C50" t="n">
+        <v>46.42857142857142</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>660</v>
+      </c>
+      <c r="C51" t="n">
+        <v>60.97560975609757</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>960</v>
+      </c>
+      <c r="C52" t="n">
+        <v>45.45454545454546</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>600</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-37.5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45403.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C54" t="n">
+        <v>183.3333333333333</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>1580</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-7.058823529411762</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1700</v>
+      </c>
+      <c r="C56" t="n">
+        <v>7.594936708860756</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2180</v>
+      </c>
+      <c r="C57" t="n">
+        <v>28.23529411764707</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>45431.99999999999</v>
+      </c>
+      <c r="B58" t="n">
+        <v>3680</v>
+      </c>
+      <c r="C58" t="n">
+        <v>68.80733944954129</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>45438.99999999999</v>
+      </c>
+      <c r="B59" t="n">
+        <v>100</v>
+      </c>
+      <c r="C59" t="n">
+        <v>-97.28260869565217</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>45445.99999999999</v>
+      </c>
+      <c r="B60" t="n">
         <v>1860</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C60" t="n">
+        <v>1760</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>45452.99999999999</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1640</v>
+      </c>
+      <c r="C61" t="n">
+        <v>-11.82795698924731</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B62" t="n">
+        <v>2200</v>
+      </c>
+      <c r="C62" t="n">
+        <v>34.14634146341464</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>45466.99999999999</v>
+      </c>
+      <c r="B63" t="n">
+        <v>4460</v>
+      </c>
+      <c r="C63" t="n">
+        <v>102.7272727272727</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B64" t="n">
+        <v>1040</v>
+      </c>
+      <c r="C64" t="n">
+        <v>-76.68161434977578</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B65" t="n">
+        <v>1800</v>
+      </c>
+      <c r="C65" t="n">
+        <v>73.07692307692308</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B66" t="n">
+        <v>3700</v>
+      </c>
+      <c r="C66" t="n">
+        <v>105.5555555555555</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>45501.99999999999</v>
+      </c>
+      <c r="B67" t="n">
+        <v>1220</v>
+      </c>
+      <c r="C67" t="n">
+        <v>-67.02702702702703</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B68" t="n">
+        <v>2240</v>
+      </c>
+      <c r="C68" t="n">
+        <v>83.60655737704919</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B69" t="n">
+        <v>2020</v>
+      </c>
+      <c r="C69" t="n">
+        <v>-9.821428571428569</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B70" t="n">
+        <v>1900</v>
+      </c>
+      <c r="C70" t="n">
+        <v>-5.940594059405946</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>45529.99999999999</v>
+      </c>
+      <c r="B71" t="n">
+        <v>2920</v>
+      </c>
+      <c r="C71" t="n">
+        <v>53.68421052631578</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B72" t="n">
+        <v>2460</v>
+      </c>
+      <c r="C72" t="n">
+        <v>-15.75342465753424</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B73" t="n">
+        <v>2100</v>
+      </c>
+      <c r="C73" t="n">
+        <v>-14.63414634146342</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B74" t="n">
+        <v>680</v>
+      </c>
+      <c r="C74" t="n">
+        <v>-67.61904761904762</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B75" t="n">
+        <v>1420</v>
+      </c>
+      <c r="C75" t="n">
+        <v>108.8235294117647</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B76" t="n">
+        <v>3420</v>
+      </c>
+      <c r="C76" t="n">
+        <v>140.8450704225352</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B77" t="n">
+        <v>5100</v>
+      </c>
+      <c r="C77" t="n">
+        <v>49.12280701754386</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1860</v>
+      </c>
+      <c r="C78" t="n">
         <v>-63.52941176470588</v>
       </c>
     </row>
@@ -2465,16 +2527,16 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>70700</v>
+        <v>97650</v>
       </c>
       <c r="B2" t="n">
-        <v>1767.5</v>
+        <v>1268.181818181818</v>
       </c>
       <c r="C2" t="n">
         <v>5100</v>
       </c>
       <c r="D2" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>
@@ -2505,7 +2567,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>2709.538461538461</v>
+        <v>2411.596035543404</v>
       </c>
     </row>
   </sheetData>

--- a/po forecast comparison/B091HTG6DQ_sales_po_comparison.xlsx
+++ b/po forecast comparison/B091HTG6DQ_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B106"/>
+  <dimension ref="A1:B107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1291,6 +1291,14 @@
       </c>
       <c r="B106" t="n">
         <v>500</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B107" t="n">
+        <v>575</v>
       </c>
     </row>
   </sheetData>
@@ -56476,7 +56484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C572"/>
+  <dimension ref="A1:C573"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -61283,7 +61291,7 @@
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
     </row>
     <row r="437">
@@ -61305,7 +61313,7 @@
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="439">
@@ -61415,7 +61423,7 @@
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>40</v>
+        <v>130</v>
       </c>
     </row>
     <row r="449">
@@ -61437,7 +61445,7 @@
         <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
     </row>
     <row r="451">
@@ -61624,7 +61632,7 @@
         <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="468">
@@ -61635,7 +61643,7 @@
         <v>0</v>
       </c>
       <c r="C468" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="469">
@@ -61657,7 +61665,7 @@
         <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>530</v>
+        <v>490</v>
       </c>
     </row>
     <row r="471">
@@ -61690,7 +61698,7 @@
         <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>490</v>
+        <v>530</v>
       </c>
     </row>
     <row r="474">
@@ -61844,7 +61852,7 @@
         <v>0</v>
       </c>
       <c r="C487" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="488">
@@ -61855,7 +61863,7 @@
         <v>0</v>
       </c>
       <c r="C488" t="n">
-        <v>100</v>
+        <v>20</v>
       </c>
     </row>
     <row r="489">
@@ -61866,7 +61874,7 @@
         <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>780</v>
+        <v>100</v>
       </c>
     </row>
     <row r="490">
@@ -61877,7 +61885,7 @@
         <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>40</v>
+        <v>780</v>
       </c>
     </row>
     <row r="491">
@@ -61899,7 +61907,7 @@
         <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="493">
@@ -61910,7 +61918,7 @@
         <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="494">
@@ -61921,7 +61929,7 @@
         <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>780</v>
+        <v>10</v>
       </c>
     </row>
     <row r="495">
@@ -61932,7 +61940,7 @@
         <v>0</v>
       </c>
       <c r="C495" t="n">
-        <v>10</v>
+        <v>780</v>
       </c>
     </row>
     <row r="496">
@@ -61954,7 +61962,7 @@
         <v>0</v>
       </c>
       <c r="C497" t="n">
-        <v>970</v>
+        <v>70</v>
       </c>
     </row>
     <row r="498">
@@ -61965,7 +61973,7 @@
         <v>0</v>
       </c>
       <c r="C498" t="n">
-        <v>70</v>
+        <v>130</v>
       </c>
     </row>
     <row r="499">
@@ -61976,7 +61984,7 @@
         <v>0</v>
       </c>
       <c r="C499" t="n">
-        <v>130</v>
+        <v>60</v>
       </c>
     </row>
     <row r="500">
@@ -61987,7 +61995,7 @@
         <v>0</v>
       </c>
       <c r="C500" t="n">
-        <v>60</v>
+        <v>970</v>
       </c>
     </row>
     <row r="501">
@@ -62361,7 +62369,7 @@
         <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="535">
@@ -62372,7 +62380,7 @@
         <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>660</v>
+        <v>10</v>
       </c>
     </row>
     <row r="536">
@@ -62383,7 +62391,7 @@
         <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>30</v>
+        <v>660</v>
       </c>
     </row>
     <row r="537">
@@ -62405,7 +62413,7 @@
         <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="539">
@@ -62416,7 +62424,7 @@
         <v>0</v>
       </c>
       <c r="C539" t="n">
-        <v>1670</v>
+        <v>30</v>
       </c>
     </row>
     <row r="540">
@@ -62427,7 +62435,7 @@
         <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>10</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="541">
@@ -62438,7 +62446,7 @@
         <v>0</v>
       </c>
       <c r="C541" t="n">
-        <v>30</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="542">
@@ -62449,7 +62457,7 @@
         <v>0</v>
       </c>
       <c r="C542" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="543">
@@ -62460,7 +62468,7 @@
         <v>0</v>
       </c>
       <c r="C543" t="n">
-        <v>1670</v>
+        <v>10</v>
       </c>
     </row>
     <row r="544">
@@ -62493,7 +62501,7 @@
         <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>50</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="547">
@@ -62504,7 +62512,7 @@
         <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>1250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="548">
@@ -62515,7 +62523,7 @@
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
     </row>
     <row r="549">
@@ -62526,7 +62534,7 @@
         <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>10</v>
+        <v>870</v>
       </c>
     </row>
     <row r="550">
@@ -62537,7 +62545,7 @@
         <v>0</v>
       </c>
       <c r="C550" t="n">
-        <v>870</v>
+        <v>50</v>
       </c>
     </row>
     <row r="551">
@@ -62779,6 +62787,17 @@
         <v>500</v>
       </c>
       <c r="C572" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573">
+      <c r="A573" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B573" t="n">
+        <v>575</v>
+      </c>
+      <c r="C573" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B091HTG6DQ_sales_po_comparison.xlsx
+++ b/po forecast comparison/B091HTG6DQ_sales_po_comparison.xlsx
@@ -433,7 +433,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B107"/>
+  <dimension ref="A1:B108"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1299,6 +1299,14 @@
       </c>
       <c r="B107" t="n">
         <v>575</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1510</v>
       </c>
     </row>
   </sheetData>
@@ -56484,7 +56492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C573"/>
+  <dimension ref="A1:C574"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -59674,7 +59682,7 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="290">
@@ -59685,7 +59693,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="291">
@@ -60037,7 +60045,7 @@
         <v>0</v>
       </c>
       <c r="C322" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="323">
@@ -60048,7 +60056,7 @@
         <v>0</v>
       </c>
       <c r="C323" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="324">
@@ -60070,7 +60078,7 @@
         <v>0</v>
       </c>
       <c r="C325" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
     </row>
     <row r="326">
@@ -60081,7 +60089,7 @@
         <v>0</v>
       </c>
       <c r="C326" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
     </row>
     <row r="327">
@@ -60103,7 +60111,7 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="329">
@@ -60114,7 +60122,7 @@
         <v>0</v>
       </c>
       <c r="C329" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="330">
@@ -60147,7 +60155,7 @@
         <v>0</v>
       </c>
       <c r="C332" t="n">
-        <v>60</v>
+        <v>240</v>
       </c>
     </row>
     <row r="333">
@@ -60158,7 +60166,7 @@
         <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="334">
@@ -60191,7 +60199,7 @@
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="337">
@@ -60334,7 +60342,7 @@
         <v>0</v>
       </c>
       <c r="C349" t="n">
-        <v>250</v>
+        <v>80</v>
       </c>
     </row>
     <row r="350">
@@ -60345,7 +60353,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>80</v>
+        <v>120</v>
       </c>
     </row>
     <row r="351">
@@ -60378,7 +60386,7 @@
         <v>0</v>
       </c>
       <c r="C353" t="n">
-        <v>120</v>
+        <v>250</v>
       </c>
     </row>
     <row r="354">
@@ -60400,7 +60408,7 @@
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
     </row>
     <row r="356">
@@ -60411,7 +60419,7 @@
         <v>0</v>
       </c>
       <c r="C356" t="n">
-        <v>240</v>
+        <v>320</v>
       </c>
     </row>
     <row r="357">
@@ -60422,7 +60430,7 @@
         <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>40</v>
+        <v>240</v>
       </c>
     </row>
     <row r="358">
@@ -60433,7 +60441,7 @@
         <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
     </row>
     <row r="359">
@@ -60444,7 +60452,7 @@
         <v>0</v>
       </c>
       <c r="C359" t="n">
-        <v>320</v>
+        <v>50</v>
       </c>
     </row>
     <row r="360">
@@ -60466,7 +60474,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>40</v>
+        <v>140</v>
       </c>
     </row>
     <row r="362">
@@ -60477,7 +60485,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>240</v>
+        <v>40</v>
       </c>
     </row>
     <row r="363">
@@ -60488,7 +60496,7 @@
         <v>0</v>
       </c>
       <c r="C363" t="n">
-        <v>320</v>
+        <v>240</v>
       </c>
     </row>
     <row r="364">
@@ -60499,7 +60507,7 @@
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>50</v>
+        <v>320</v>
       </c>
     </row>
     <row r="365">
@@ -60510,7 +60518,7 @@
         <v>0</v>
       </c>
       <c r="C365" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="366">
@@ -60521,7 +60529,7 @@
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>140</v>
+        <v>60</v>
       </c>
     </row>
     <row r="367">
@@ -60543,7 +60551,7 @@
         <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>260</v>
+        <v>520</v>
       </c>
     </row>
     <row r="369">
@@ -60554,7 +60562,7 @@
         <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="370">
@@ -60565,7 +60573,7 @@
         <v>0</v>
       </c>
       <c r="C370" t="n">
-        <v>520</v>
+        <v>10</v>
       </c>
     </row>
     <row r="371">
@@ -60576,7 +60584,7 @@
         <v>0</v>
       </c>
       <c r="C371" t="n">
-        <v>10</v>
+        <v>260</v>
       </c>
     </row>
     <row r="372">
@@ -60587,7 +60595,7 @@
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="373">
@@ -60598,7 +60606,7 @@
         <v>0</v>
       </c>
       <c r="C373" t="n">
-        <v>250</v>
+        <v>520</v>
       </c>
     </row>
     <row r="374">
@@ -60609,7 +60617,7 @@
         <v>0</v>
       </c>
       <c r="C374" t="n">
-        <v>520</v>
+        <v>50</v>
       </c>
     </row>
     <row r="375">
@@ -60620,7 +60628,7 @@
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>50</v>
+        <v>250</v>
       </c>
     </row>
     <row r="376">
@@ -60708,7 +60716,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="384">
@@ -60730,7 +60738,7 @@
         <v>0</v>
       </c>
       <c r="C385" t="n">
-        <v>850</v>
+        <v>20</v>
       </c>
     </row>
     <row r="386">
@@ -60763,7 +60771,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>150</v>
+        <v>850</v>
       </c>
     </row>
     <row r="389">
@@ -60774,7 +60782,7 @@
         <v>0</v>
       </c>
       <c r="C389" t="n">
-        <v>30</v>
+        <v>690</v>
       </c>
     </row>
     <row r="390">
@@ -60785,7 +60793,7 @@
         <v>0</v>
       </c>
       <c r="C390" t="n">
-        <v>690</v>
+        <v>150</v>
       </c>
     </row>
     <row r="391">
@@ -60840,7 +60848,7 @@
         <v>0</v>
       </c>
       <c r="C395" t="n">
-        <v>10</v>
+        <v>460</v>
       </c>
     </row>
     <row r="396">
@@ -60851,7 +60859,7 @@
         <v>0</v>
       </c>
       <c r="C396" t="n">
-        <v>290</v>
+        <v>70</v>
       </c>
     </row>
     <row r="397">
@@ -60862,7 +60870,7 @@
         <v>0</v>
       </c>
       <c r="C397" t="n">
-        <v>460</v>
+        <v>90</v>
       </c>
     </row>
     <row r="398">
@@ -60884,7 +60892,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>90</v>
+        <v>290</v>
       </c>
     </row>
     <row r="400">
@@ -60895,7 +60903,7 @@
         <v>0</v>
       </c>
       <c r="C400" t="n">
-        <v>70</v>
+        <v>10</v>
       </c>
     </row>
     <row r="401">
@@ -60917,7 +60925,7 @@
         <v>0</v>
       </c>
       <c r="C402" t="n">
-        <v>460</v>
+        <v>290</v>
       </c>
     </row>
     <row r="403">
@@ -60928,7 +60936,7 @@
         <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>90</v>
+        <v>460</v>
       </c>
     </row>
     <row r="404">
@@ -60939,7 +60947,7 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>70</v>
+        <v>90</v>
       </c>
     </row>
     <row r="405">
@@ -60961,7 +60969,7 @@
         <v>0</v>
       </c>
       <c r="C406" t="n">
-        <v>290</v>
+        <v>70</v>
       </c>
     </row>
     <row r="407">
@@ -61060,7 +61068,7 @@
         <v>0</v>
       </c>
       <c r="C415" t="n">
-        <v>810</v>
+        <v>230</v>
       </c>
     </row>
     <row r="416">
@@ -61071,7 +61079,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>60</v>
+        <v>810</v>
       </c>
     </row>
     <row r="417">
@@ -61082,7 +61090,7 @@
         <v>0</v>
       </c>
       <c r="C417" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
     </row>
     <row r="418">
@@ -61093,7 +61101,7 @@
         <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>60</v>
+        <v>810</v>
       </c>
     </row>
     <row r="419">
@@ -61104,7 +61112,7 @@
         <v>0</v>
       </c>
       <c r="C419" t="n">
-        <v>810</v>
+        <v>60</v>
       </c>
     </row>
     <row r="420">
@@ -61214,7 +61222,7 @@
         <v>0</v>
       </c>
       <c r="C429" t="n">
-        <v>10</v>
+        <v>230</v>
       </c>
     </row>
     <row r="430">
@@ -61225,7 +61233,7 @@
         <v>0</v>
       </c>
       <c r="C430" t="n">
-        <v>10</v>
+        <v>180</v>
       </c>
     </row>
     <row r="431">
@@ -61247,7 +61255,7 @@
         <v>0</v>
       </c>
       <c r="C432" t="n">
-        <v>230</v>
+        <v>10</v>
       </c>
     </row>
     <row r="433">
@@ -61258,7 +61266,7 @@
         <v>0</v>
       </c>
       <c r="C433" t="n">
-        <v>180</v>
+        <v>10</v>
       </c>
     </row>
     <row r="434">
@@ -61269,7 +61277,7 @@
         <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="435">
@@ -61280,7 +61288,7 @@
         <v>0</v>
       </c>
       <c r="C435" t="n">
-        <v>90</v>
+        <v>10</v>
       </c>
     </row>
     <row r="436">
@@ -61291,7 +61299,7 @@
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="437">
@@ -61313,7 +61321,7 @@
         <v>0</v>
       </c>
       <c r="C438" t="n">
-        <v>10</v>
+        <v>90</v>
       </c>
     </row>
     <row r="439">
@@ -61401,7 +61409,7 @@
         <v>0</v>
       </c>
       <c r="C446" t="n">
-        <v>630</v>
+        <v>40</v>
       </c>
     </row>
     <row r="447">
@@ -61412,7 +61420,7 @@
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>340</v>
+        <v>630</v>
       </c>
     </row>
     <row r="448">
@@ -61423,7 +61431,7 @@
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>130</v>
+        <v>340</v>
       </c>
     </row>
     <row r="449">
@@ -61434,7 +61442,7 @@
         <v>0</v>
       </c>
       <c r="C449" t="n">
-        <v>710</v>
+        <v>130</v>
       </c>
     </row>
     <row r="450">
@@ -61445,7 +61453,7 @@
         <v>0</v>
       </c>
       <c r="C450" t="n">
-        <v>40</v>
+        <v>710</v>
       </c>
     </row>
     <row r="451">
@@ -61456,7 +61464,7 @@
         <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>710</v>
+        <v>630</v>
       </c>
     </row>
     <row r="452">
@@ -61467,7 +61475,7 @@
         <v>0</v>
       </c>
       <c r="C452" t="n">
-        <v>40</v>
+        <v>710</v>
       </c>
     </row>
     <row r="453">
@@ -61478,7 +61486,7 @@
         <v>0</v>
       </c>
       <c r="C453" t="n">
-        <v>130</v>
+        <v>40</v>
       </c>
     </row>
     <row r="454">
@@ -61489,7 +61497,7 @@
         <v>0</v>
       </c>
       <c r="C454" t="n">
-        <v>340</v>
+        <v>130</v>
       </c>
     </row>
     <row r="455">
@@ -61500,7 +61508,7 @@
         <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>630</v>
+        <v>340</v>
       </c>
     </row>
     <row r="456">
@@ -61522,7 +61530,7 @@
         <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="458">
@@ -61555,7 +61563,7 @@
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
     </row>
     <row r="461">
@@ -61566,7 +61574,7 @@
         <v>0</v>
       </c>
       <c r="C461" t="n">
-        <v>180</v>
+        <v>230</v>
       </c>
     </row>
     <row r="462">
@@ -61577,7 +61585,7 @@
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>180</v>
+        <v>20</v>
       </c>
     </row>
     <row r="463">
@@ -61588,7 +61596,7 @@
         <v>0</v>
       </c>
       <c r="C463" t="n">
-        <v>230</v>
+        <v>180</v>
       </c>
     </row>
     <row r="464">
@@ -61599,7 +61607,7 @@
         <v>0</v>
       </c>
       <c r="C464" t="n">
-        <v>20</v>
+        <v>180</v>
       </c>
     </row>
     <row r="465">
@@ -61654,7 +61662,7 @@
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>10</v>
+        <v>490</v>
       </c>
     </row>
     <row r="470">
@@ -61665,7 +61673,7 @@
         <v>0</v>
       </c>
       <c r="C470" t="n">
-        <v>490</v>
+        <v>90</v>
       </c>
     </row>
     <row r="471">
@@ -61687,7 +61695,7 @@
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>90</v>
+        <v>530</v>
       </c>
     </row>
     <row r="473">
@@ -61698,7 +61706,7 @@
         <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>530</v>
+        <v>10</v>
       </c>
     </row>
     <row r="474">
@@ -61753,7 +61761,7 @@
         <v>0</v>
       </c>
       <c r="C478" t="n">
-        <v>310</v>
+        <v>520</v>
       </c>
     </row>
     <row r="479">
@@ -61764,7 +61772,7 @@
         <v>0</v>
       </c>
       <c r="C479" t="n">
-        <v>310</v>
+        <v>520</v>
       </c>
     </row>
     <row r="480">
@@ -61775,7 +61783,7 @@
         <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>520</v>
+        <v>310</v>
       </c>
     </row>
     <row r="481">
@@ -61819,7 +61827,7 @@
         <v>0</v>
       </c>
       <c r="C484" t="n">
-        <v>520</v>
+        <v>310</v>
       </c>
     </row>
     <row r="485">
@@ -61841,7 +61849,7 @@
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>100</v>
+        <v>780</v>
       </c>
     </row>
     <row r="487">
@@ -61874,7 +61882,7 @@
         <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>100</v>
+        <v>40</v>
       </c>
     </row>
     <row r="490">
@@ -61885,7 +61893,7 @@
         <v>0</v>
       </c>
       <c r="C490" t="n">
-        <v>780</v>
+        <v>40</v>
       </c>
     </row>
     <row r="491">
@@ -61896,7 +61904,7 @@
         <v>0</v>
       </c>
       <c r="C491" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="492">
@@ -61907,7 +61915,7 @@
         <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="493">
@@ -61918,7 +61926,7 @@
         <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="494">
@@ -61929,7 +61937,7 @@
         <v>0</v>
       </c>
       <c r="C494" t="n">
-        <v>10</v>
+        <v>100</v>
       </c>
     </row>
     <row r="495">
@@ -62028,7 +62036,7 @@
         <v>0</v>
       </c>
       <c r="C503" t="n">
-        <v>130</v>
+        <v>230</v>
       </c>
     </row>
     <row r="504">
@@ -62039,7 +62047,7 @@
         <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>60</v>
+        <v>130</v>
       </c>
     </row>
     <row r="505">
@@ -62050,7 +62058,7 @@
         <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>230</v>
+        <v>60</v>
       </c>
     </row>
     <row r="506">
@@ -62116,7 +62124,7 @@
         <v>0</v>
       </c>
       <c r="C511" t="n">
-        <v>70</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="512">
@@ -62127,7 +62135,7 @@
         <v>0</v>
       </c>
       <c r="C512" t="n">
-        <v>1140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="513">
@@ -62138,7 +62146,7 @@
         <v>0</v>
       </c>
       <c r="C513" t="n">
-        <v>70</v>
+        <v>20</v>
       </c>
     </row>
     <row r="514">
@@ -62149,7 +62157,7 @@
         <v>0</v>
       </c>
       <c r="C514" t="n">
-        <v>1140</v>
+        <v>70</v>
       </c>
     </row>
     <row r="515">
@@ -62160,7 +62168,7 @@
         <v>0</v>
       </c>
       <c r="C515" t="n">
-        <v>20</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="516">
@@ -62182,7 +62190,7 @@
         <v>0</v>
       </c>
       <c r="C517" t="n">
-        <v>60</v>
+        <v>960</v>
       </c>
     </row>
     <row r="518">
@@ -62193,7 +62201,7 @@
         <v>0</v>
       </c>
       <c r="C518" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="519">
@@ -62204,7 +62212,7 @@
         <v>0</v>
       </c>
       <c r="C519" t="n">
-        <v>960</v>
+        <v>30</v>
       </c>
     </row>
     <row r="520">
@@ -62215,7 +62223,7 @@
         <v>0</v>
       </c>
       <c r="C520" t="n">
-        <v>30</v>
+        <v>960</v>
       </c>
     </row>
     <row r="521">
@@ -62226,7 +62234,7 @@
         <v>0</v>
       </c>
       <c r="C521" t="n">
-        <v>960</v>
+        <v>30</v>
       </c>
     </row>
     <row r="522">
@@ -62314,7 +62322,7 @@
         <v>0</v>
       </c>
       <c r="C529" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="530">
@@ -62325,7 +62333,7 @@
         <v>0</v>
       </c>
       <c r="C530" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="531">
@@ -62336,7 +62344,7 @@
         <v>0</v>
       </c>
       <c r="C531" t="n">
-        <v>660</v>
+        <v>10</v>
       </c>
     </row>
     <row r="532">
@@ -62347,7 +62355,7 @@
         <v>0</v>
       </c>
       <c r="C532" t="n">
-        <v>10</v>
+        <v>660</v>
       </c>
     </row>
     <row r="533">
@@ -62358,7 +62366,7 @@
         <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>10</v>
+        <v>660</v>
       </c>
     </row>
     <row r="534">
@@ -62369,7 +62377,7 @@
         <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="535">
@@ -62380,7 +62388,7 @@
         <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="536">
@@ -62391,7 +62399,7 @@
         <v>0</v>
       </c>
       <c r="C536" t="n">
-        <v>660</v>
+        <v>10</v>
       </c>
     </row>
     <row r="537">
@@ -62413,7 +62421,7 @@
         <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
     </row>
     <row r="539">
@@ -62424,7 +62432,7 @@
         <v>0</v>
       </c>
       <c r="C539" t="n">
-        <v>30</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="540">
@@ -62435,7 +62443,7 @@
         <v>0</v>
       </c>
       <c r="C540" t="n">
-        <v>1670</v>
+        <v>10</v>
       </c>
     </row>
     <row r="541">
@@ -62501,7 +62509,7 @@
         <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>1250</v>
+        <v>240</v>
       </c>
     </row>
     <row r="547">
@@ -62512,7 +62520,7 @@
         <v>0</v>
       </c>
       <c r="C547" t="n">
-        <v>240</v>
+        <v>10</v>
       </c>
     </row>
     <row r="548">
@@ -62523,7 +62531,7 @@
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="549">
@@ -62545,7 +62553,7 @@
         <v>0</v>
       </c>
       <c r="C550" t="n">
-        <v>50</v>
+        <v>1250</v>
       </c>
     </row>
     <row r="551">
@@ -62798,6 +62806,17 @@
         <v>575</v>
       </c>
       <c r="C573" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574">
+      <c r="A574" s="2" t="n">
+        <v>45676.99999999999</v>
+      </c>
+      <c r="B574" t="n">
+        <v>1510</v>
+      </c>
+      <c r="C574" t="n">
         <v>0</v>
       </c>
     </row>

--- a/po forecast comparison/B091HTG6DQ_sales_po_comparison.xlsx
+++ b/po forecast comparison/B091HTG6DQ_sales_po_comparison.xlsx
@@ -1306,7 +1306,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B108" t="n">
-        <v>1510</v>
+        <v>519</v>
       </c>
     </row>
   </sheetData>
@@ -62814,7 +62814,7 @@
         <v>45676.99999999999</v>
       </c>
       <c r="B574" t="n">
-        <v>1510</v>
+        <v>519</v>
       </c>
       <c r="C574" t="n">
         <v>0</v>
